--- a/output/StructureDefinition-lrc-result.xlsx
+++ b/output/StructureDefinition-lrc-result.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:05:24+02:00</t>
+    <t>2024-02-22T18:39:46+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-lrc-result.xlsx
+++ b/output/StructureDefinition-lrc-result.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:39:46+02:00</t>
+    <t>2024-02-27T18:05:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-lrc-result.xlsx
+++ b/output/StructureDefinition-lrc-result.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T18:05:15+02:00</t>
+    <t>2024-03-03T08:59:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-lrc-result.xlsx
+++ b/output/StructureDefinition-lrc-result.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-onco-result</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-onco-result</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T08:59:15+02:00</t>
+    <t>2024-03-03T10:40:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -713,7 +713,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-referral)
+    <t xml:space="preserve">Reference(http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-referral)
 </t>
   </si>
   <si>
@@ -1091,7 +1091,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-result-codes</t>
+    <t>http://ig.fhir-il-community.org/LRC/ValueSet/lrc-result-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -3025,7 +3025,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.94921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-lrc-result.xlsx
+++ b/output/StructureDefinition-lrc-result.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-onco-result</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-result</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T10:40:33+02:00</t>
+    <t>2024-03-04T15:01:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Outburn LTD.</t>
+    <t>FHIR-il community</t>
   </si>
   <si>
     <t>Contact</t>
